--- a/Music/Guitar/Guitar 2 (Autosaved).xlsx
+++ b/Music/Guitar/Guitar 2 (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10272" yWindow="348" windowWidth="12960" windowHeight="9984" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="10272" yWindow="348" windowWidth="12960" windowHeight="9984"/>
   </bookViews>
   <sheets>
     <sheet name="Patterns" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <definedName name="fingerboard">Keys!$B$4:$T$9</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1860,9 +1859,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10:U15"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2731,7 +2730,7 @@
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12141,7 +12140,7 @@
   <dimension ref="B2:AV31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12804,8 +12803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13304,8 +13303,8 @@
   <dimension ref="B1:BQ51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9:U14"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
